--- a/example.xlsx
+++ b/example.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskWorkspace\matlab\apps\app设计\diffusion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47312\Downloads\Diffuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B661A0B-4F07-4B89-93E2-A6F287314BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78018C3-E42B-4A5F-89BB-59EE405B2A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="14784" windowHeight="6600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="300" windowWidth="30936" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boro2021" sheetId="6" r:id="rId1"/>
-    <sheet name="Lynn2018" sheetId="7" r:id="rId2"/>
-    <sheet name="Rubin2017" sheetId="2" r:id="rId3"/>
-    <sheet name="Vielzeuf2021" sheetId="1" r:id="rId4"/>
+    <sheet name="Rubin2017" sheetId="2" r:id="rId2"/>
+    <sheet name="Ferrando2020" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,13 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Distance (um)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grs (mol%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -51,148 +46,6 @@
   <si>
     <t>7Li ppb</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ΔH=183.493 kJ/mol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T=700</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ΔH=278 kJ/mol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T=860 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P=0.6 GPa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D0=6.63e-14 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/s</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D=2.31e-22 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/s</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D0=9.6e-7 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/s</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D=1.15e-21 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/s</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fig. 1, Peak 2</t>
@@ -211,253 +64,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>T=750</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>℃</t>
-    </r>
+    <t>1s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>D0=7.01e-8 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/s</t>
-    </r>
+    <t>x (mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ΔH=273 kJ/mol</t>
+    <t>CaO (wt%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cherniak et al., 2007</t>
+    <t>//[010]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jollands et al., 2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D0=5.01e-9 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/s</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ΔH=311 kJ/mol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D=8.05e-22 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/s</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D=6.6e-25 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/s</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance (um)</t>
-  </si>
-  <si>
-    <t>Li (ppm)</t>
-  </si>
-  <si>
-    <t>2Stdv</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uncertainty</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Figure 2c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lynn et al., 2018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P (ppm)</t>
-  </si>
-  <si>
-    <t>Al (ppm)</t>
-  </si>
-  <si>
-    <r>
-      <t>D0=1.2e-6 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/s</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ΔH=245.9 kJ/mol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D=5.21e-15 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/s</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>305-U1309D-241R-2W, 89-91</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,19 +123,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -512,19 +134,6 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -546,13 +155,13 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -560,9 +169,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,17 +182,8 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1010,6 +607,7 @@
         <c:axId val="818026560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1072,6 +670,7 @@
         <c:axId val="818026976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1259,252 +858,210 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Lynn2018!$A$3:$A$41</c:f>
+              <c:f>Rubin2017!$A$3:$A$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>3.4006539999999996E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>3.4699219999999996E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>3.4995069999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>3.5687730000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>3.5983599999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>3.6676239999999996E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77</c:v>
+                  <c:v>3.7073760000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88</c:v>
+                  <c:v>3.7369120000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99</c:v>
+                  <c:v>3.8062220000000004E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110</c:v>
+                  <c:v>3.8357610000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121</c:v>
+                  <c:v>3.9050680000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>132</c:v>
+                  <c:v>3.9346099999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>143</c:v>
+                  <c:v>4.0039149999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>154</c:v>
+                  <c:v>4.0334599999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>165</c:v>
+                  <c:v>4.1027619999999995E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>176</c:v>
+                  <c:v>4.1323099999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>187</c:v>
+                  <c:v>4.2016099999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>198</c:v>
+                  <c:v>4.2311599999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>209</c:v>
+                  <c:v>4.3004579999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>220</c:v>
+                  <c:v>4.3300099999999996E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>231</c:v>
+                  <c:v>4.3993059999999994E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>242</c:v>
+                  <c:v>4.4288609999999995E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>253</c:v>
+                  <c:v>4.4981539999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>264</c:v>
+                  <c:v>4.5277119999999995E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>275</c:v>
+                  <c:v>4.5970029999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>286</c:v>
+                  <c:v>4.6265630000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>297</c:v>
+                  <c:v>4.6958519999999996E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>308</c:v>
+                  <c:v>4.7254139999999995E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>319</c:v>
+                  <c:v>4.7947009999999994E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>330</c:v>
+                  <c:v>4.8242649999999995E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>341</c:v>
+                  <c:v>4.8935499999999993E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>418</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>429</c:v>
+                  <c:v>4.9333280000000003E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Lynn2018!$B$3:$B$41</c:f>
+              <c:f>Rubin2017!$B$3:$B$34</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1.82</c:v>
+                  <c:v>5.9115374037614865E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.954</c:v>
+                  <c:v>1.1874428378199957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0409999999999999</c:v>
+                  <c:v>0.59065054121449956</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1560000000000001</c:v>
+                  <c:v>1.7782972720947841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.323</c:v>
+                  <c:v>5.8959265136905867E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3039999999999998</c:v>
+                  <c:v>1.1792248544430708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.371</c:v>
+                  <c:v>3.5343789135411461</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.54</c:v>
+                  <c:v>6.5239212154972863</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.59</c:v>
+                  <c:v>6.5525432438867144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.673</c:v>
+                  <c:v>16.015368502779186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.85</c:v>
+                  <c:v>25.247788630816707</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.879</c:v>
+                  <c:v>48.688838269168613</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.93</c:v>
+                  <c:v>75.149179662324116</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.05</c:v>
+                  <c:v>104.12919040923303</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1259999999999999</c:v>
+                  <c:v>93.761422691926015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.141</c:v>
+                  <c:v>94.485052995624912</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.28</c:v>
+                  <c:v>116.10819150573049</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.32</c:v>
+                  <c:v>102.30481000700755</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.19</c:v>
+                  <c:v>88.868466213219847</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.25</c:v>
+                  <c:v>65.376472296510713</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.35</c:v>
+                  <c:v>62.654959218589589</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3450000000000002</c:v>
+                  <c:v>41.832628952561592</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.4</c:v>
+                  <c:v>29.836648242459113</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.43</c:v>
+                  <c:v>10.252528300797431</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.43</c:v>
+                  <c:v>5.7268441894345017</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.379</c:v>
+                  <c:v>2.256743801337703</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.46</c:v>
+                  <c:v>4.5513898005561968</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.33</c:v>
+                  <c:v>1.1335099864446931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.27</c:v>
+                  <c:v>1.7035237880763914</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.39</c:v>
+                  <c:v>1.1337829273042621</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.39</c:v>
+                  <c:v>1.1403460453180592</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.37</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.3540000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.42</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.36</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.34</c:v>
+                  <c:v>1.6978581972233271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,7 +1069,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9C8-4819-B057-A7DF4E9D76A6}"/>
+              <c16:uniqueId val="{00000000-F1D5-485D-9E85-CC328C3A6467}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1524,11 +1081,437 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1731211487"/>
-        <c:axId val="1731218975"/>
+        <c:axId val="1271866879"/>
+        <c:axId val="927764367"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1731211487"/>
+        <c:axId val="1271866879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.0000000000000011E-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="927764367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="927764367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1271866879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ferrando2020!$A$3:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.387</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.117</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ferrando2020!$B$3:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>6.6699999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9600000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7400000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1042</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1055</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1045</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1046</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.9500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7600000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-055E-4876-963D-00E6AC91369F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="699906239"/>
+        <c:axId val="699921631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="699906239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,14 +1568,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731218975"/>
+        <c:crossAx val="699921631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1731218975"/>
+        <c:axId val="699921631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="6.0000000000000012E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1610,7 +1594,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1647,7 +1631,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731211487"/>
+        <c:crossAx val="699906239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1783,6 +1767,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2300,6 +2324,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2820,12 +3360,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
@@ -2860,29 +3400,68 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C62FDF-C240-4F80-AB52-C45C140FDF83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC6E2EB-D96A-4680-8DA2-E8FC3E5768FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0686A6A-B3A0-4CA7-9C75-807885DF4638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3162,446 +3741,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AB1737-7EE4-4247-A79C-7A5566A2B239}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="A3" s="8">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>117.47799999999999</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>31.555</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>119.45599999999999</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>33.916666666666664</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>121.43399999999998</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>31.073333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>123.41199999999998</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>33.369999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>125.38999999999997</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>30.203333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>127.36799999999997</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>32.853333333333332</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>129.34599999999998</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>33.286666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>131.32399999999998</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>33.106666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>133.30199999999999</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>31.590000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>135.28</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>32.576666666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>137.25800000000001</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>35.636666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>139.23600000000002</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>34.97</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>141.21400000000003</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>32.450000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>143.19200000000004</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>29.060000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>145.17000000000004</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>32.703333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>147.14800000000005</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>37.08</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>149.12600000000006</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>41.076666666666668</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>151.10400000000007</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>44.7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>153.08200000000008</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>48.943333333333328</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>155.06000000000009</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>55.693333333333335</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>157.0380000000001</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>55.693333333333335</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>159.0160000000001</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>160.99400000000011</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>53.443333333333328</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>162.97200000000012</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>55.160000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>164.95000000000013</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>57.82</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>166.92800000000014</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>55.646666666666668</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>168.90600000000015</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>55.276666666666671</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>170.88400000000016</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>51.186666666666675</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>172.86200000000017</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>56.753333333333337</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>174.84000000000017</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>55.083333333333336</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>176.81800000000018</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>57.296666666666674</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>178.79600000000019</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>52.28</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>180.7740000000002</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>54.333333333333329</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>182.75200000000021</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>53.999999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>184.73000000000022</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>54.986666666666665</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>186.70800000000023</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>55.53</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>188.68600000000023</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>52.670000000000009</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>190.66400000000024</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>56.473333333333329</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>192.64200000000025</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>52.539999999999992</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>194.62000000000026</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>56.953333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>196.59800000000027</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>52.81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <v>198.57600000000028</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>53.606666666666662</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>200.55400000000029</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>51.949999999999989</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>202.53200000000029</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>51.533333333333324</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>204.5100000000003</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>53.18666666666666</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>206.48800000000031</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>51.143333333333324</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>208.46600000000032</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>53.00333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>210.44400000000033</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>52.006666666666668</v>
       </c>
     </row>
@@ -3614,1600 +4171,596 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BCDD6C-DDC8-40BF-81A1-9D75A63915F6}">
-  <dimension ref="A1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64910974-8E3A-4B51-A08B-FDF1BF22049B}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10" style="9" customWidth="1"/>
-    <col min="3" max="4" width="8.77734375" style="9"/>
-    <col min="5" max="5" width="12.6640625" style="9" customWidth="1"/>
-    <col min="6" max="11" width="8.77734375" style="9"/>
-    <col min="12" max="12" width="17.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="9"/>
+    <col min="1" max="1" width="17.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>11</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1.82</v>
-      </c>
-      <c r="C3" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D3" s="14">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="E3" s="14">
-        <v>8.1</v>
-      </c>
-      <c r="F3" s="14">
-        <v>122.3</v>
-      </c>
-      <c r="G3" s="14">
-        <v>2.7</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="12">
-        <v>1263</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>22</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1.954</v>
-      </c>
-      <c r="C4" s="11">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="D4" s="14">
-        <v>50</v>
-      </c>
-      <c r="E4" s="14">
-        <v>12</v>
-      </c>
-      <c r="F4" s="14">
-        <v>118.8</v>
-      </c>
-      <c r="G4" s="14">
-        <v>2.7</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="12">
-        <v>20</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>33</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2.0409999999999999</v>
-      </c>
-      <c r="C5" s="11">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D5" s="14">
-        <v>45.3</v>
-      </c>
-      <c r="E5" s="14">
-        <v>9.5</v>
-      </c>
-      <c r="F5" s="14">
-        <v>112</v>
-      </c>
-      <c r="G5" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>44</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2.1560000000000001</v>
-      </c>
-      <c r="C6" s="11">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D6" s="14">
-        <v>45.2</v>
-      </c>
-      <c r="E6" s="14">
-        <v>8.5</v>
-      </c>
-      <c r="F6" s="14">
-        <v>101.1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="11">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>55</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2.323</v>
-      </c>
-      <c r="C7" s="11">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="D7" s="14">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E7" s="14">
-        <v>7.8</v>
-      </c>
-      <c r="F7" s="14">
-        <v>97.3</v>
-      </c>
-      <c r="G7" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>66</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2.3039999999999998</v>
-      </c>
-      <c r="C8" s="11">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D8" s="14">
-        <v>33.5</v>
-      </c>
-      <c r="E8" s="14">
-        <v>8.1</v>
-      </c>
-      <c r="F8" s="14">
-        <v>95.3</v>
-      </c>
-      <c r="G8" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>77</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2.371</v>
-      </c>
-      <c r="C9" s="11">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="D9" s="14">
-        <v>30</v>
-      </c>
-      <c r="E9" s="14">
-        <v>11</v>
-      </c>
-      <c r="F9" s="14">
-        <v>102.5</v>
-      </c>
-      <c r="G9" s="14">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>88</v>
-      </c>
-      <c r="B10" s="11">
-        <v>2.54</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D10" s="14">
-        <v>28</v>
-      </c>
-      <c r="E10" s="14">
-        <v>15</v>
-      </c>
-      <c r="F10" s="14">
-        <v>107</v>
-      </c>
-      <c r="G10" s="14">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>99</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2.59</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.16</v>
-      </c>
-      <c r="D11" s="14">
-        <v>35</v>
-      </c>
-      <c r="E11" s="14">
-        <v>14</v>
-      </c>
-      <c r="F11" s="14">
-        <v>100.8</v>
-      </c>
-      <c r="G11" s="14">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>110</v>
-      </c>
-      <c r="B12" s="11">
-        <v>2.673</v>
-      </c>
-      <c r="C12" s="11">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="D12" s="14">
-        <v>38</v>
-      </c>
-      <c r="E12" s="14">
-        <v>7.7</v>
-      </c>
-      <c r="F12" s="14">
-        <v>98.6</v>
-      </c>
-      <c r="G12" s="14">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>121</v>
-      </c>
-      <c r="B13" s="11">
-        <v>2.85</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="14">
-        <v>43.8</v>
-      </c>
-      <c r="E13" s="14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F13" s="14">
-        <v>95.7</v>
-      </c>
-      <c r="G13" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>132</v>
-      </c>
-      <c r="B14" s="11">
-        <v>2.879</v>
-      </c>
-      <c r="C14" s="11">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="D14" s="14">
-        <v>34.9</v>
-      </c>
-      <c r="E14" s="14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F14" s="14">
-        <v>116.7</v>
-      </c>
-      <c r="G14" s="14">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>143</v>
-      </c>
-      <c r="B15" s="11">
-        <v>2.93</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="14">
-        <v>30</v>
-      </c>
-      <c r="E15" s="14">
-        <v>7.4</v>
-      </c>
-      <c r="F15" s="14">
-        <v>90.6</v>
-      </c>
-      <c r="G15" s="14">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>154</v>
-      </c>
-      <c r="B16" s="11">
-        <v>3.05</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="D16" s="14">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="E16" s="14">
-        <v>7.2</v>
-      </c>
-      <c r="F16" s="14">
-        <v>92</v>
-      </c>
-      <c r="G16" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>165</v>
-      </c>
-      <c r="B17" s="11">
-        <v>3.1259999999999999</v>
-      </c>
-      <c r="C17" s="11">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="D17" s="14">
-        <v>30.3</v>
-      </c>
-      <c r="E17" s="14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F17" s="14">
-        <v>91.5</v>
-      </c>
-      <c r="G17" s="14">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>176</v>
-      </c>
-      <c r="B18" s="11">
-        <v>3.141</v>
-      </c>
-      <c r="C18" s="11">
-        <v>9.4E-2</v>
-      </c>
-      <c r="D18" s="14">
-        <v>28.6</v>
-      </c>
-      <c r="E18" s="14">
-        <v>7.4</v>
-      </c>
-      <c r="F18" s="14">
-        <v>91.5</v>
-      </c>
-      <c r="G18" s="14">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>187</v>
-      </c>
-      <c r="B19" s="11">
-        <v>3.28</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0.13</v>
-      </c>
-      <c r="D19" s="14">
-        <v>31.8</v>
-      </c>
-      <c r="E19" s="14">
-        <v>7.4</v>
-      </c>
-      <c r="F19" s="14">
-        <v>88</v>
-      </c>
-      <c r="G19" s="14">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>198</v>
-      </c>
-      <c r="B20" s="11">
-        <v>3.32</v>
-      </c>
-      <c r="C20" s="11">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="D20" s="14">
-        <v>22.9</v>
-      </c>
-      <c r="E20" s="14">
-        <v>7.2</v>
-      </c>
-      <c r="F20" s="14">
-        <v>92.5</v>
-      </c>
-      <c r="G20" s="14">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>209</v>
-      </c>
-      <c r="B21" s="11">
-        <v>3.19</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="D21" s="14">
-        <v>25.4</v>
-      </c>
-      <c r="E21" s="14">
-        <v>6.6</v>
-      </c>
-      <c r="F21" s="14">
-        <v>88.5</v>
-      </c>
-      <c r="G21" s="14">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>220</v>
-      </c>
-      <c r="B22" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="14">
-        <v>29.3</v>
-      </c>
-      <c r="E22" s="14">
-        <v>7.8</v>
-      </c>
-      <c r="F22" s="14">
-        <v>90.4</v>
-      </c>
-      <c r="G22" s="14">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>231</v>
-      </c>
-      <c r="B23" s="11">
-        <v>3.35</v>
-      </c>
-      <c r="C23" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="14">
-        <v>29.9</v>
-      </c>
-      <c r="E23" s="14">
-        <v>8.6</v>
-      </c>
-      <c r="F23" s="14">
-        <v>89.1</v>
-      </c>
-      <c r="G23" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>242</v>
-      </c>
-      <c r="B24" s="11">
-        <v>3.3450000000000002</v>
-      </c>
-      <c r="C24" s="11">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D24" s="14">
-        <v>30.5</v>
-      </c>
-      <c r="E24" s="14">
-        <v>7.1</v>
-      </c>
-      <c r="F24" s="14">
-        <v>97.7</v>
-      </c>
-      <c r="G24" s="14">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>253</v>
-      </c>
-      <c r="B25" s="11">
-        <v>3.4</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0.12</v>
-      </c>
-      <c r="D25" s="14">
-        <v>29.4</v>
-      </c>
-      <c r="E25" s="14">
-        <v>7.8</v>
-      </c>
-      <c r="F25" s="14">
-        <v>93</v>
-      </c>
-      <c r="G25" s="14">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>264</v>
-      </c>
-      <c r="B26" s="11">
-        <v>3.43</v>
-      </c>
-      <c r="C26" s="11">
-        <v>0.19</v>
-      </c>
-      <c r="D26" s="14">
-        <v>25</v>
-      </c>
-      <c r="E26" s="14">
-        <v>15</v>
-      </c>
-      <c r="F26" s="14">
-        <v>98.5</v>
-      </c>
-      <c r="G26" s="14">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>275</v>
-      </c>
-      <c r="B27" s="11">
-        <v>3.43</v>
-      </c>
-      <c r="C27" s="11">
-        <v>0.12</v>
-      </c>
-      <c r="D27" s="14">
-        <v>26</v>
-      </c>
-      <c r="E27" s="14">
-        <v>7.8</v>
-      </c>
-      <c r="F27" s="14">
-        <v>96.4</v>
-      </c>
-      <c r="G27" s="14">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>286</v>
-      </c>
-      <c r="B28" s="11">
-        <v>3.379</v>
-      </c>
-      <c r="C28" s="11">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="D28" s="14">
-        <v>32</v>
-      </c>
-      <c r="E28" s="14">
-        <v>7.6</v>
-      </c>
-      <c r="F28" s="14">
-        <v>95.3</v>
-      </c>
-      <c r="G28" s="14">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>297</v>
-      </c>
-      <c r="B29" s="11">
-        <v>3.46</v>
-      </c>
-      <c r="C29" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="D29" s="14">
-        <v>29.9</v>
-      </c>
-      <c r="E29" s="14">
-        <v>7.3</v>
-      </c>
-      <c r="F29" s="14">
-        <v>95.9</v>
-      </c>
-      <c r="G29" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>308</v>
-      </c>
-      <c r="B30" s="11">
-        <v>3.33</v>
-      </c>
-      <c r="C30" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="D30" s="14">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="E30" s="14">
-        <v>6.9</v>
-      </c>
-      <c r="F30" s="14">
-        <v>96.1</v>
-      </c>
-      <c r="G30" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>319</v>
-      </c>
-      <c r="B31" s="11">
-        <v>3.27</v>
-      </c>
-      <c r="C31" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D31" s="14">
-        <v>25.6</v>
-      </c>
-      <c r="E31" s="14">
-        <v>7.9</v>
-      </c>
-      <c r="F31" s="14">
-        <v>95.7</v>
-      </c>
-      <c r="G31" s="14">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>330</v>
-      </c>
-      <c r="B32" s="11">
-        <v>3.39</v>
-      </c>
-      <c r="C32" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D32" s="14">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="E32" s="14">
-        <v>8.1</v>
-      </c>
-      <c r="F32" s="14">
-        <v>93.2</v>
-      </c>
-      <c r="G32" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>341</v>
-      </c>
-      <c r="B33" s="11">
-        <v>3.39</v>
-      </c>
-      <c r="C33" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="D33" s="14">
-        <v>31.7</v>
-      </c>
-      <c r="E33" s="14">
-        <v>7.4</v>
-      </c>
-      <c r="F33" s="14">
-        <v>92.3</v>
-      </c>
-      <c r="G33" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>352</v>
-      </c>
-      <c r="B34" s="11">
-        <v>3.3660000000000001</v>
-      </c>
-      <c r="C34" s="11">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="D34" s="14">
-        <v>33</v>
-      </c>
-      <c r="E34" s="14">
-        <v>7.2</v>
-      </c>
-      <c r="F34" s="14">
-        <v>98.3</v>
-      </c>
-      <c r="G34" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>363</v>
-      </c>
-      <c r="B35" s="11">
-        <v>3.37</v>
-      </c>
-      <c r="C35" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="D35" s="14">
-        <v>32.9</v>
-      </c>
-      <c r="E35" s="14">
-        <v>7.9</v>
-      </c>
-      <c r="F35" s="14">
-        <v>95.2</v>
-      </c>
-      <c r="G35" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>374</v>
-      </c>
-      <c r="B36" s="11">
-        <v>3.3220000000000001</v>
-      </c>
-      <c r="C36" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="D36" s="14">
-        <v>30</v>
-      </c>
-      <c r="E36" s="14">
-        <v>6.9</v>
-      </c>
-      <c r="F36" s="14">
-        <v>99</v>
-      </c>
-      <c r="G36" s="14">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>385</v>
-      </c>
-      <c r="B37" s="11">
-        <v>3.3540000000000001</v>
-      </c>
-      <c r="C37" s="11">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="D37" s="14">
-        <v>34.1</v>
-      </c>
-      <c r="E37" s="14">
-        <v>8.6</v>
-      </c>
-      <c r="F37" s="14">
-        <v>95.4</v>
-      </c>
-      <c r="G37" s="14">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>396</v>
-      </c>
-      <c r="B38" s="11">
-        <v>3.35</v>
-      </c>
-      <c r="C38" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="D38" s="14">
-        <v>31.8</v>
-      </c>
-      <c r="E38" s="14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F38" s="14">
-        <v>94.5</v>
-      </c>
-      <c r="G38" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>407</v>
-      </c>
-      <c r="B39" s="11">
-        <v>3.42</v>
-      </c>
-      <c r="C39" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D39" s="14">
-        <v>34.4</v>
-      </c>
-      <c r="E39" s="14">
-        <v>7.2</v>
-      </c>
-      <c r="F39" s="14">
-        <v>101</v>
-      </c>
-      <c r="G39" s="14">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>418</v>
-      </c>
-      <c r="B40" s="11">
-        <v>3.36</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D40" s="14">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="E40" s="14">
-        <v>7.2</v>
-      </c>
-      <c r="F40" s="14">
-        <v>101</v>
-      </c>
-      <c r="G40" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>429</v>
-      </c>
-      <c r="B41" s="11">
-        <v>3.34</v>
-      </c>
-      <c r="C41" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D41" s="14">
-        <v>28.1</v>
-      </c>
-      <c r="E41" s="14">
-        <v>6.7</v>
-      </c>
-      <c r="F41" s="14">
-        <v>100.1</v>
-      </c>
-      <c r="G41" s="14">
-        <v>2.1</v>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>3.4006539999999996E-5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5.9115374037614865E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3.4699219999999996E-5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.1874428378199957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3.4995069999999998E-5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.59065054121449956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3.5687730000000003E-5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.7782972720947841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3.5983599999999999E-5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5.8959265136905867E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3.6676239999999996E-5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.1792248544430708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>3.7073760000000001E-5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3.5343789135411461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3.7369120000000002E-5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>6.5239212154972863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>3.8062220000000004E-5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6.5525432438867144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>3.8357610000000001E-5</v>
+      </c>
+      <c r="B12" s="6">
+        <v>16.015368502779186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>3.9050680000000001E-5</v>
+      </c>
+      <c r="B13" s="6">
+        <v>25.247788630816707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>3.9346099999999999E-5</v>
+      </c>
+      <c r="B14" s="6">
+        <v>48.688838269168613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>4.0039149999999998E-5</v>
+      </c>
+      <c r="B15" s="6">
+        <v>75.149179662324116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>4.0334599999999998E-5</v>
+      </c>
+      <c r="B16" s="6">
+        <v>104.12919040923303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>4.1027619999999995E-5</v>
+      </c>
+      <c r="B17" s="6">
+        <v>93.761422691926015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>4.1323099999999997E-5</v>
+      </c>
+      <c r="B18" s="6">
+        <v>94.485052995624912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>4.2016099999999999E-5</v>
+      </c>
+      <c r="B19" s="6">
+        <v>116.10819150573049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>4.2311599999999997E-5</v>
+      </c>
+      <c r="B20" s="6">
+        <v>102.30481000700755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>4.3004579999999997E-5</v>
+      </c>
+      <c r="B21" s="6">
+        <v>88.868466213219847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>4.3300099999999996E-5</v>
+      </c>
+      <c r="B22" s="6">
+        <v>65.376472296510713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>4.3993059999999994E-5</v>
+      </c>
+      <c r="B23" s="6">
+        <v>62.654959218589589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>4.4288609999999995E-5</v>
+      </c>
+      <c r="B24" s="6">
+        <v>41.832628952561592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>4.4981539999999999E-5</v>
+      </c>
+      <c r="B25" s="6">
+        <v>29.836648242459113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>4.5277119999999995E-5</v>
+      </c>
+      <c r="B26" s="6">
+        <v>10.252528300797431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>4.5970029999999997E-5</v>
+      </c>
+      <c r="B27" s="6">
+        <v>5.7268441894345017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>4.6265630000000002E-5</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2.256743801337703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>4.6958519999999996E-5</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4.5513898005561968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>4.7254139999999995E-5</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1.1335099864446931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>4.7947009999999994E-5</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1.7035237880763914</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>4.8242649999999995E-5</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1.1337829273042621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>4.8935499999999993E-5</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1.1403460453180592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>4.9333280000000003E-5</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1.6978581972233271</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64910974-8E3A-4B51-A08B-FDF1BF22049B}">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E60B14-D935-40AA-8A04-A4F728A81A02}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="16.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>3.4006539999999996E-5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>5.9115374037614865E-7</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3.4699219999999996E-5</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1.1874428378199957</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>3.4995069999999998E-5</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.59065054121449956</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3.5687730000000003E-5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1.7782972720947841</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>3.5983599999999999E-5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>5.8959265136905867E-7</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>3.6676239999999996E-5</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1.1792248544430708</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>3.7073760000000001E-5</v>
-      </c>
-      <c r="B9" s="7">
-        <v>3.5343789135411461</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>3.7369120000000002E-5</v>
-      </c>
-      <c r="B10" s="7">
-        <v>6.5239212154972863</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>3.8062220000000004E-5</v>
-      </c>
-      <c r="B11" s="7">
-        <v>6.5525432438867144</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>3.8357610000000001E-5</v>
-      </c>
-      <c r="B12" s="7">
-        <v>16.015368502779186</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>3.9050680000000001E-5</v>
-      </c>
-      <c r="B13" s="7">
-        <v>25.247788630816707</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>3.9346099999999999E-5</v>
-      </c>
-      <c r="B14" s="7">
-        <v>48.688838269168613</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>4.0039149999999998E-5</v>
-      </c>
-      <c r="B15" s="7">
-        <v>75.149179662324116</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>4.0334599999999998E-5</v>
-      </c>
-      <c r="B16" s="7">
-        <v>104.12919040923303</v>
-      </c>
-      <c r="C16" s="4"/>
+      <c r="B1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="B5" s="8">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="B6" s="8">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="B7" s="8">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.1042</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.1017</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.1018</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.1077</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>0.876</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1.022</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.1055</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1.387</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.1048</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1.46</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.1055</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6.3E-3</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>4.1027619999999995E-5</v>
-      </c>
-      <c r="B17" s="7">
-        <v>93.761422691926015</v>
-      </c>
-      <c r="C17" s="4"/>
+      <c r="A17" s="8">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.108</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6.3E-3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>4.1323099999999997E-5</v>
-      </c>
-      <c r="B18" s="7">
-        <v>94.485052995624912</v>
-      </c>
-      <c r="C18" s="4"/>
+      <c r="A18" s="8">
+        <v>1.825</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.1045</v>
+      </c>
+      <c r="C18" s="8">
+        <v>6.4000000000000003E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>4.2016099999999999E-5</v>
-      </c>
-      <c r="B19" s="7">
-        <v>116.10819150573049</v>
-      </c>
-      <c r="C19" s="4"/>
+      <c r="A19" s="8">
+        <v>2.044</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="C19" s="8">
+        <v>6.4000000000000003E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>4.2311599999999997E-5</v>
-      </c>
-      <c r="B20" s="7">
-        <v>102.30481000700755</v>
-      </c>
-      <c r="C20" s="4"/>
+      <c r="A20" s="8">
+        <v>2.117</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.1046</v>
+      </c>
+      <c r="C20" s="8">
+        <v>6.3E-3</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>4.3004579999999997E-5</v>
-      </c>
-      <c r="B21" s="7">
-        <v>88.868466213219847</v>
-      </c>
-      <c r="C21" s="4"/>
+      <c r="A21" s="8">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="B21" s="8">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>6.1999999999999998E-3</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>4.3300099999999996E-5</v>
-      </c>
-      <c r="B22" s="7">
-        <v>65.376472296510713</v>
-      </c>
-      <c r="C22" s="4"/>
+      <c r="A22" s="8">
+        <v>2.4089999999999998</v>
+      </c>
+      <c r="B22" s="8">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>6.1999999999999998E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>4.3993059999999994E-5</v>
-      </c>
-      <c r="B23" s="7">
-        <v>62.654959218589589</v>
-      </c>
-      <c r="C23" s="4"/>
+      <c r="A23" s="8">
+        <v>2.5550000000000002</v>
+      </c>
+      <c r="B23" s="8">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6.1999999999999998E-3</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>4.4288609999999995E-5</v>
-      </c>
-      <c r="B24" s="7">
-        <v>41.832628952561592</v>
-      </c>
-      <c r="C24" s="4"/>
+      <c r="A24" s="8">
+        <v>2.774</v>
+      </c>
+      <c r="B24" s="8">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5.7999999999999996E-3</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>4.4981539999999999E-5</v>
-      </c>
-      <c r="B25" s="7">
-        <v>29.836648242459113</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>4.5277119999999995E-5</v>
-      </c>
-      <c r="B26" s="7">
-        <v>10.252528300797431</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>4.5970029999999997E-5</v>
-      </c>
-      <c r="B27" s="7">
-        <v>5.7268441894345017</v>
-      </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>4.6265630000000002E-5</v>
-      </c>
-      <c r="B28" s="7">
-        <v>2.256743801337703</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>4.6958519999999996E-5</v>
-      </c>
-      <c r="B29" s="7">
-        <v>4.5513898005561968</v>
-      </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>4.7254139999999995E-5</v>
-      </c>
-      <c r="B30" s="7">
-        <v>1.1335099864446931</v>
-      </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>4.7947009999999994E-5</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1.7035237880763914</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>4.8242649999999995E-5</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1.1337829273042621</v>
-      </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>4.8935499999999993E-5</v>
-      </c>
-      <c r="B33" s="7">
-        <v>1.1403460453180592</v>
-      </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>4.9333280000000003E-5</v>
-      </c>
-      <c r="B34" s="7">
-        <v>1.6978581972233271</v>
-      </c>
-      <c r="C34" s="4"/>
+      <c r="A25" s="8">
+        <v>2.92</v>
+      </c>
+      <c r="B25" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>5.7999999999999996E-3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>166</v>
-      </c>
-      <c r="B2" s="1">
-        <v>13.29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>249</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>332</v>
-      </c>
-      <c r="B4" s="1">
-        <v>13.47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>374</v>
-      </c>
-      <c r="B5" s="1">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>415</v>
-      </c>
-      <c r="B6" s="1">
-        <v>13.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>457</v>
-      </c>
-      <c r="B7" s="1">
-        <v>13.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>498</v>
-      </c>
-      <c r="B8" s="1">
-        <v>13.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>581</v>
-      </c>
-      <c r="B9" s="1">
-        <v>12.44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>706</v>
-      </c>
-      <c r="B10" s="1">
-        <v>12.38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>789</v>
-      </c>
-      <c r="B11" s="1">
-        <v>11.24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>872</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10.220000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>913</v>
-      </c>
-      <c r="B13" s="1">
-        <v>9.91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>955</v>
-      </c>
-      <c r="B14" s="1">
-        <v>9.39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1038</v>
-      </c>
-      <c r="B15" s="1">
-        <v>8.4600000000000009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1079</v>
-      </c>
-      <c r="B16" s="1">
-        <v>8.2799999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1121</v>
-      </c>
-      <c r="B17" s="1">
-        <v>7.82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1163</v>
-      </c>
-      <c r="B18" s="1">
-        <v>7.73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1204</v>
-      </c>
-      <c r="B19" s="1">
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1245</v>
-      </c>
-      <c r="B20" s="1">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1287</v>
-      </c>
-      <c r="B21" s="1">
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>1328</v>
-      </c>
-      <c r="B22" s="1">
-        <v>7.59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>1370</v>
-      </c>
-      <c r="B23" s="1">
-        <v>7.67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>1411</v>
-      </c>
-      <c r="B24" s="1">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>1453</v>
-      </c>
-      <c r="B25" s="1">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>1494</v>
-      </c>
-      <c r="B26" s="1">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>1577</v>
-      </c>
-      <c r="B27" s="1">
-        <v>7.61</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>